--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_9.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298487.0049003611</v>
+        <v>320074.8015362156</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776015</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.14494819</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4789054.529283858</v>
+        <v>4812058.022867889</v>
       </c>
     </row>
     <row r="11">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G17" t="n">
-        <v>2.361305680129117</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H17" t="n">
         <v>27.59002526031614</v>
@@ -1865,7 +1865,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S18" t="n">
         <v>27.59002526031614</v>
@@ -1977,16 +1977,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>27.59002526031614</v>
@@ -2056,10 +2056,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U19" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="V19" t="n">
         <v>22.44875936050941</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>137.610688794897</v>
       </c>
       <c r="G21" t="n">
-        <v>106.5083957652447</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2251,40 +2251,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>79.78832327157356</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>35.90556166151559</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>79.78832327157352</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,67 +2798,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>185.12254643689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,31 +3071,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>41.20451373856815</v>
       </c>
       <c r="C33" t="n">
-        <v>6.898601502952458</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>76.09118681301986</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>147.7547032477073</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>212.2853856434421</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>22.82803476152656</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>70.73885857389313</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>32.89715141506767</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,20 +3737,20 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="C41" t="n">
-        <v>187.9840913941556</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>213.4242636173429</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>100.8515541714208</v>
       </c>
       <c r="E42" t="n">
-        <v>24.04248813035636</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F17" t="n">
-        <v>72.39977328887976</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G17" t="n">
-        <v>70.01461603622408</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H17" t="n">
-        <v>42.14590365206637</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>28.41772601812563</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N17" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
         <v>83.04597603355158</v>
@@ -5534,31 +5534,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5598,16 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M18" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O18" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P18" t="n">
         <v>83.04597603355158</v>
@@ -5616,22 +5616,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
         <v>26.7539638887914</v>
       </c>
       <c r="V18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X18" t="n">
         <v>2.207202020825291</v>
@@ -5695,16 +5695,16 @@
         <v>108.4888536788635</v>
       </c>
       <c r="R19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="S19" t="n">
         <v>80.62014129470579</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>52.75142891054807</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>24.88271652639035</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="V19" t="n">
         <v>2.207202020825291</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>286.10283626238</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C21" t="n">
-        <v>286.10283626238</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="D21" t="n">
-        <v>286.10283626238</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="E21" t="n">
-        <v>126.8653812569245</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="F21" t="n">
-        <v>126.8653812569245</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5841,40 +5841,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>454.3181732824481</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>454.3181732824481</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X21" t="n">
-        <v>454.3181732824481</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y21" t="n">
-        <v>454.3181732824481</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5932,28 +5932,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8949250843803</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C24" t="n">
-        <v>385.8949250843803</v>
+        <v>343.9687549441752</v>
       </c>
       <c r="D24" t="n">
-        <v>385.8949250843803</v>
+        <v>195.0343452829239</v>
       </c>
       <c r="E24" t="n">
-        <v>305.3006591534979</v>
+        <v>195.0343452829239</v>
       </c>
       <c r="F24" t="n">
-        <v>158.7661011803829</v>
+        <v>195.0343452829239</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>56.30351986553944</v>
       </c>
       <c r="H24" t="n">
         <v>20.03527576299844</v>
@@ -6069,13 +6069,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>712.019119383956</v>
@@ -6105,13 +6105,13 @@
         <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.1102621044483</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6175,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>385.8949250843803</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C27" t="n">
-        <v>385.8949250843803</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D27" t="n">
-        <v>385.8949250843803</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E27" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>239.3603671112653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>100.6295416938808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>100.6295416938808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W27" t="n">
-        <v>761.8705608694022</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X27" t="n">
-        <v>761.8705608694022</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y27" t="n">
-        <v>554.1102621044483</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="28">
@@ -6409,13 +6409,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.0119685275972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>401.4607451716973</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>401.4607451716973</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>158.0119685275972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>158.0119685275972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>158.0119685275972</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6643,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>731.528039392485</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>669.9406037026066</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.7099827492369</v>
+        <v>192.438681748555</v>
       </c>
       <c r="C33" t="n">
-        <v>474.7416984028202</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="D33" t="n">
-        <v>325.807288741569</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="E33" t="n">
-        <v>166.5698337361135</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>659.389396090879</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>659.389396090879</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>659.389396090879</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.7099827492369</v>
+        <v>234.0594026966036</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>669.9406037026066</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>186.4405569126723</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>167.2328274651121</v>
       </c>
       <c r="V36" t="n">
-        <v>562.4161926976942</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="W36" t="n">
-        <v>562.4161926976942</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="X36" t="n">
-        <v>562.4161926976942</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="Y36" t="n">
-        <v>354.6558939327403</v>
+        <v>17.98565246742797</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>482.5317333192617</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>459.4731123480227</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.73453560909468</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>90.73453560909468</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>90.73453560909468</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>828.3465448583072</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>610.7768502289857</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="X39" t="n">
-        <v>298.4948343740486</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.73453560909468</v>
+        <v>185.4468568347103</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>877.0247885897328</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.536925949487</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="C41" t="n">
         <v>232.6540053493298</v>
@@ -7394,7 +7394,7 @@
         <v>232.6540053493298</v>
       </c>
       <c r="E41" t="n">
-        <v>17.07394108938743</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="F41" t="n">
         <v>17.07394108938743</v>
@@ -7412,19 +7412,19 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>17.62165426160527</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>197.6975058462639</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>408.9875268274333</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>614.8420490346726</v>
+        <v>704.5021043267236</v>
       </c>
       <c r="O41" t="n">
-        <v>764.0369991773207</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P41" t="n">
         <v>853.6970544693717</v>
@@ -7442,13 +7442,13 @@
         <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
+        <v>853.6970544693717</v>
+      </c>
+      <c r="V41" t="n">
+        <v>853.6970544693717</v>
+      </c>
+      <c r="W41" t="n">
         <v>638.1169902094293</v>
-      </c>
-      <c r="V41" t="n">
-        <v>638.1169902094293</v>
-      </c>
-      <c r="W41" t="n">
-        <v>422.536925949487</v>
       </c>
       <c r="X41" t="n">
         <v>422.536925949487</v>
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>41.35928263520194</v>
+        <v>469.9016531893613</v>
       </c>
       <c r="C42" t="n">
-        <v>41.35928263520194</v>
+        <v>469.9016531893613</v>
       </c>
       <c r="D42" t="n">
-        <v>41.35928263520194</v>
+        <v>368.0313964505524</v>
       </c>
       <c r="E42" t="n">
-        <v>17.07394108938743</v>
+        <v>368.0313964505524</v>
       </c>
       <c r="F42" t="n">
-        <v>17.07394108938743</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>142.4315011472248</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>142.4315011472248</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="M42" t="n">
-        <v>353.7215221283943</v>
+        <v>361.7224539937033</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7635558748512</v>
+        <v>573.0124749748728</v>
       </c>
       <c r="O42" t="n">
-        <v>671.0535768560208</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7515,25 +7515,25 @@
         <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>680.2797099200405</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>680.2797099200405</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>464.6996456600982</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V42" t="n">
-        <v>464.6996456600982</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="W42" t="n">
-        <v>249.1195814001559</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X42" t="n">
-        <v>249.1195814001559</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y42" t="n">
-        <v>41.35928263520194</v>
+        <v>638.1169902094293</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7597,7 @@
         <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
         <v>17.07394108938743</v>
@@ -8456,16 +8456,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
@@ -8702,10 +8702,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8787,7 +8787,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,10 +8927,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -8939,10 +8939,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>258.8230210155857</v>
@@ -9246,7 +9246,7 @@
         <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
-        <v>166.1444050401903</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -9255,10 +9255,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
         <v>167.5717993463377</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,10 +10352,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>306.0557124853233</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>292.5201795090609</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>153.5445607555817</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>298.8430447887824</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.6430966734834</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,13 +11069,13 @@
         <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>424.4103209305159</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>355.5582975393612</v>
+        <v>276.8395813191359</v>
       </c>
       <c r="N42" t="n">
-        <v>238.4548774837949</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>339.6526005763767</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,13 +23030,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23072,7 +23072,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>200.5294970799005</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>238.7699996381505</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23343,22 +23343,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>135.825319297428</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23540,16 +23540,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>127.3027654569188</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>122.502859909153</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9414318350059</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H17" t="n">
         <v>311.884776855451</v>
@@ -23753,7 +23753,7 @@
         <v>182.8858643100898</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
         <v>144.0931458435217</v>
@@ -23865,16 +23865,16 @@
         <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>208.4992929001388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>196.4265727766561</v>
@@ -23944,10 +23944,10 @@
         <v>200.3555641679654</v>
       </c>
       <c r="U19" t="n">
-        <v>263.8702699959815</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>176.6722207847417</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -24020,16 +24020,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>7.458523598486863</v>
       </c>
       <c r="G21" t="n">
-        <v>30.83512139796595</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>77.85675718382738</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>76.32988257498087</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,10 +24443,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>394.1189821444107</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24491,10 +24491,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0645313606844</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>9.60830957984156</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24731,10 +24731,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24765,13 +24765,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>122.9844063081204</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,16 +24807,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>40.81883564408477</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24883,10 +24883,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,31 +24959,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>196.5189054968423</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>125.3286699112992</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8098974853633</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,7 +25056,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>180.0120675192578</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>96.61731217529588</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>85.04588390171801</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,10 +25394,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>326.4129339558864</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,7 +25476,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>86.90622188150782</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25521,13 +25521,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>167.2675772797539</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,13 +25591,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>194.7497502693249</v>
       </c>
       <c r="C41" t="n">
-        <v>177.2888003768519</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>193.4517821243685</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25682,7 +25682,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>37.92138929049358</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,7 +25691,7 @@
         <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,31 +25704,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>46.59351139321794</v>
       </c>
       <c r="E42" t="n">
-        <v>133.6025923250446</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>38.27071954357669</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25837,10 +25837,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350035.0587549795</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351669.2246312145</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205639</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506790.0512205641</v>
+        <v>488291.61581059</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506790.0512205642</v>
+        <v>488291.6158105898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506790.0512205642</v>
+        <v>488291.6158105898</v>
       </c>
     </row>
     <row r="15">
@@ -26317,43 +26317,43 @@
         <v>48378.33248915087</v>
       </c>
       <c r="D2" t="n">
-        <v>48378.33248915087</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="E2" t="n">
-        <v>48378.33248915088</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="F2" t="n">
-        <v>48378.33248915088</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="G2" t="n">
-        <v>51885.62330624468</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="H2" t="n">
         <v>74772.30263909958</v>
       </c>
       <c r="I2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="J2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909957</v>
       </c>
       <c r="K2" t="n">
-        <v>74772.30263909957</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="L2" t="n">
-        <v>74772.30263909959</v>
+        <v>72043.0252835296</v>
       </c>
       <c r="M2" t="n">
-        <v>74772.30263909957</v>
+        <v>72043.02528352961</v>
       </c>
       <c r="N2" t="n">
-        <v>74772.30263909954</v>
+        <v>72043.02528352961</v>
       </c>
       <c r="O2" t="n">
         <v>71833.1935317696</v>
       </c>
       <c r="P2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2099.754014286062</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="E4" t="n">
-        <v>2099.754014286062</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="F4" t="n">
-        <v>2099.754014286062</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="G4" t="n">
-        <v>2278.927672807631</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>160.9678794298453</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.11787725023</v>
+        <v>160.9678794298453</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>160.9678794298453</v>
       </c>
       <c r="O4" t="n">
-        <v>3297.970381927695</v>
+        <v>159.5405981880675</v>
       </c>
       <c r="P4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12650.97847486482</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>12650.97847486482</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>12650.97847486482</v>
+        <v>8478.555432738947</v>
       </c>
       <c r="E6" t="n">
-        <v>46278.57847486482</v>
+        <v>50064.58648652712</v>
       </c>
       <c r="F6" t="n">
-        <v>46278.57847486482</v>
+        <v>50064.58648652712</v>
       </c>
       <c r="G6" t="n">
-        <v>40367.21002413608</v>
+        <v>49644.4185221752</v>
       </c>
       <c r="H6" t="n">
-        <v>-913.2711442440032</v>
+        <v>2355.314235302259</v>
       </c>
       <c r="I6" t="n">
-        <v>56670.51599808768</v>
+        <v>59939.10137763395</v>
       </c>
       <c r="J6" t="n">
-        <v>56670.51599808768</v>
+        <v>59939.10137763392</v>
       </c>
       <c r="K6" t="n">
-        <v>56670.51599808766</v>
+        <v>59939.10137763395</v>
       </c>
       <c r="L6" t="n">
-        <v>56670.51599808769</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="M6" t="n">
-        <v>56670.51599808766</v>
+        <v>58786.10234497165</v>
       </c>
       <c r="N6" t="n">
-        <v>56670.51599808763</v>
+        <v>58786.10234497165</v>
       </c>
       <c r="O6" t="n">
-        <v>55559.02792190747</v>
+        <v>58697.4577056471</v>
       </c>
       <c r="P6" t="n">
-        <v>46278.57847486482</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35176,16 +35176,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>27.59002526031614</v>
@@ -35966,19 +35966,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>27.59002526031614</v>
@@ -36127,7 +36127,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>161.1784674257276</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>22.20284867224837</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37543,16 +37543,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5532456285028686</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,13 +37789,13 @@
         <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>194.997257333925</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
+        <v>134.7055473971176</v>
+      </c>
+      <c r="N42" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="N42" t="n">
-        <v>107.1131654004615</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201732.117710107</v>
+        <v>304239.2234927444</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>2755553.591652928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>20120750.05383738</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5201920.383830386</v>
+        <v>4890972.686918095</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.13217237922859</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F2" t="n">
-        <v>38.87161743162454</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X3" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1095,31 +1095,31 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.8449117491243</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.88091821707973</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="12">
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F12" t="n">
-        <v>38.87161743162454</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S13" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>38.87161743162454</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.790450447682262</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>102.3382270926889</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.89750082124296</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,23 +2320,23 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>84.14750936819277</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2599,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>96.06641246444056</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>13.36070629151663</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U29" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2879,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>29.5752317575975</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>154.8359655669563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>106.6545164108074</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>24.57149420274674</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>152.9640815142202</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>106.6545164108074</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.2200621726792</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7.488380325438603</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -3559,7 +3559,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>132.876626399942</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.392147704424664</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>149.9081469967879</v>
       </c>
     </row>
     <row r="40">
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.33470701582003</v>
+        <v>195.9801206960483</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>75.81973950377628</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>185.12254643689</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>21.18375537072436</v>
+        <v>46.11100275489868</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>108.0435523828573</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.05769526855297</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.37278572049297</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C2" t="n">
-        <v>87.37278572049297</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D2" t="n">
-        <v>87.37278572049297</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E2" t="n">
-        <v>42.79483382228227</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N2" t="n">
-        <v>134.6031257566472</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O2" t="n">
-        <v>134.6031257566472</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V2" t="n">
-        <v>176.5286895169144</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W2" t="n">
-        <v>176.5286895169144</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X2" t="n">
-        <v>131.9507376187037</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.9507376187037</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D3" t="n">
-        <v>48.10852568854899</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E3" t="n">
-        <v>48.10852568854899</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F3" t="n">
-        <v>48.10852568854899</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G3" t="n">
-        <v>48.10852568854899</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L3" t="n">
-        <v>89.14698820604177</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M3" t="n">
-        <v>132.8378388614781</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V3" t="n">
-        <v>131.9507376187037</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W3" t="n">
-        <v>131.9507376187037</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.90696048418764</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C4" t="n">
-        <v>48.90696048418764</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D4" t="n">
-        <v>48.90696048418764</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E4" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V4" t="n">
-        <v>93.48491238239833</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W4" t="n">
-        <v>48.90696048418764</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X4" t="n">
-        <v>48.90696048418764</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.90696048418764</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L5" t="n">
-        <v>45.45613755060546</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T5" t="n">
-        <v>92.68647758675968</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U5" t="n">
-        <v>48.10852568854899</v>
+        <v>40.631385380739</v>
       </c>
       <c r="V5" t="n">
-        <v>3.530573790338288</v>
+        <v>40.631385380739</v>
       </c>
       <c r="W5" t="n">
-        <v>3.530573790338288</v>
+        <v>40.631385380739</v>
       </c>
       <c r="X5" t="n">
-        <v>3.530573790338288</v>
+        <v>40.631385380739</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>40.631385380739</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.9507376187037</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C6" t="n">
-        <v>87.37278572049297</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D6" t="n">
-        <v>87.37278572049297</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E6" t="n">
-        <v>87.37278572049297</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F6" t="n">
-        <v>42.79483382228227</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W6" t="n">
-        <v>131.9507376187037</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.9507376187037</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C7" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D7" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>99.73223474306218</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>99.73223474306218</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U7" t="n">
-        <v>93.48491238239833</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V7" t="n">
-        <v>93.48491238239833</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W7" t="n">
-        <v>48.90696048418764</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X7" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
-        <v>3.530573790338288</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M8" t="n">
-        <v>45.45613755060546</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S8" t="n">
-        <v>121.8591222504766</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T8" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U8" t="n">
-        <v>92.68647758675968</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V8" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="W8" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.37278572049297</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C9" t="n">
-        <v>87.37278572049297</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D9" t="n">
-        <v>87.37278572049297</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E9" t="n">
-        <v>87.37278572049297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F9" t="n">
-        <v>87.37278572049297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G9" t="n">
-        <v>42.79483382228227</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H9" t="n">
-        <v>4.284706443124001</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W9" t="n">
-        <v>87.37278572049297</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X9" t="n">
-        <v>87.37278572049297</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y9" t="n">
-        <v>87.37278572049297</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C10" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D10" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E10" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M11" t="n">
-        <v>134.6031257566472</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N11" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8591222504766</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S11" t="n">
-        <v>77.28117035226589</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T11" t="n">
-        <v>32.70321845405519</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U11" t="n">
-        <v>32.70321845405519</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V11" t="n">
-        <v>32.70321845405519</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W11" t="n">
-        <v>32.70321845405519</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X11" t="n">
-        <v>32.70321845405519</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.79483382228227</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C12" t="n">
-        <v>42.79483382228227</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D12" t="n">
-        <v>42.79483382228227</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E12" t="n">
-        <v>42.79483382228227</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M12" t="n">
-        <v>90.91227510121089</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N12" t="n">
-        <v>134.6031257566472</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V12" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W12" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X12" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y12" t="n">
-        <v>87.37278572049297</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G13" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H13" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S13" t="n">
-        <v>93.48491238239833</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T13" t="n">
-        <v>93.48491238239833</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="U13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.79483382228227</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C14" t="n">
-        <v>42.79483382228227</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D14" t="n">
-        <v>42.79483382228227</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E14" t="n">
-        <v>42.79483382228227</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F14" t="n">
-        <v>42.79483382228227</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M14" t="n">
-        <v>89.14698820604177</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S14" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T14" t="n">
-        <v>87.37278572049297</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U14" t="n">
-        <v>42.79483382228227</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V14" t="n">
-        <v>42.79483382228227</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W14" t="n">
-        <v>42.79483382228227</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X14" t="n">
-        <v>42.79483382228227</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y14" t="n">
-        <v>42.79483382228227</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.79483382228227</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C15" t="n">
-        <v>42.79483382228227</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D15" t="n">
-        <v>42.79483382228227</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E15" t="n">
-        <v>42.79483382228227</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45613755060546</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M15" t="n">
-        <v>132.8378388614781</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S15" t="n">
-        <v>131.9507376187037</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T15" t="n">
-        <v>87.37278572049297</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U15" t="n">
-        <v>87.37278572049297</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V15" t="n">
-        <v>87.37278572049297</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W15" t="n">
-        <v>42.79483382228227</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X15" t="n">
-        <v>42.79483382228227</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.79483382228227</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R16" t="n">
-        <v>93.48491238239833</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S16" t="n">
-        <v>48.90696048418764</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T16" t="n">
-        <v>4.329008585976936</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M17" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>343.4227147053767</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C18" t="n">
-        <v>168.9696854242497</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>926.7869526608958</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>753.3696081115647</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T18" t="n">
-        <v>551.1830134703307</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U18" t="n">
-        <v>551.1830134703307</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V18" t="n">
-        <v>551.1830134703307</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W18" t="n">
-        <v>551.1830134703307</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X18" t="n">
-        <v>551.1830134703307</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y18" t="n">
-        <v>343.4227147053767</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.0360370837871</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K20" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L20" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M20" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.38115216564972</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,19 +6013,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="V23" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V23" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
         <v>262.7299197543128</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6095,22 +6095,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6171,13 +6171,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6317,7 +6317,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>867.0203752435245</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>867.0203752435245</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="V27" t="n">
-        <v>346.7339351357363</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W27" t="n">
-        <v>346.7339351357363</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X27" t="n">
-        <v>346.7339351357363</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y27" t="n">
-        <v>346.7339351357363</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6420,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6493,7 +6493,7 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
         <v>262.7299197543128</v>
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>302.0092082451243</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
         <v>20.03527576299844</v>
@@ -6545,16 +6545,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W30" t="n">
-        <v>384.2867411876791</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X30" t="n">
-        <v>176.4352409821462</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="31">
@@ -6606,7 +6606,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>132.7447050367114</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="C32" t="n">
-        <v>132.7447050367114</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="D32" t="n">
-        <v>132.7447050367114</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>114.4172127583938</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>294.4930643430524</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>511.4686916059566</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>717.3232138131959</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>866.518163955844</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>804.7952718325922</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>593.6638884121423</v>
       </c>
       <c r="T32" t="n">
-        <v>376.1934816808115</v>
+        <v>368.3145454180702</v>
       </c>
       <c r="U32" t="n">
-        <v>132.7447050367114</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="V32" t="n">
-        <v>132.7447050367114</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="W32" t="n">
-        <v>132.7447050367114</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="X32" t="n">
-        <v>132.7447050367114</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="Y32" t="n">
-        <v>132.7447050367114</v>
+        <v>260.5827106596789</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.8525979295682</v>
+        <v>324.8955773635284</v>
       </c>
       <c r="C33" t="n">
-        <v>669.8525979295682</v>
+        <v>324.8955773635284</v>
       </c>
       <c r="D33" t="n">
-        <v>520.918188268317</v>
+        <v>324.8955773635284</v>
       </c>
       <c r="E33" t="n">
-        <v>361.6807332628614</v>
+        <v>165.6581223580729</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>611.0983395749985</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>719.5241099840409</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S33" t="n">
-        <v>838.0679349496363</v>
+        <v>681.5913452514495</v>
       </c>
       <c r="T33" t="n">
-        <v>838.0679349496363</v>
+        <v>479.4047506102156</v>
       </c>
       <c r="U33" t="n">
-        <v>838.0679349496363</v>
+        <v>479.4047506102156</v>
       </c>
       <c r="V33" t="n">
-        <v>838.0679349496363</v>
+        <v>479.4047506102156</v>
       </c>
       <c r="W33" t="n">
-        <v>838.0679349496363</v>
+        <v>324.8955773635284</v>
       </c>
       <c r="X33" t="n">
-        <v>838.0679349496363</v>
+        <v>324.8955773635284</v>
       </c>
       <c r="Y33" t="n">
-        <v>838.0679349496363</v>
+        <v>324.8955773635284</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>114.4172127583938</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>294.4930643430524</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>511.4686916059566</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>717.3232138131959</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>866.518163955844</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>804.7952718325922</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>593.6638884121423</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>368.3145454180702</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>405.7892447611057</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>405.7892447611057</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>405.7892447611057</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>405.7892447611057</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.2235253947631</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.4926999773786</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>482.8700007201869</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>719.5241099840409</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>956.178219247895</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>613.5495435260597</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>613.5495435260597</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>405.7892447611057</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>302.2144218805389</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>519.190049143443</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>725.0445713506824</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>874.2395214933305</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>734.955220459218</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>509.6058774651459</v>
       </c>
       <c r="U38" t="n">
-        <v>231.8830517671884</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="V38" t="n">
-        <v>231.8830517671884</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="W38" t="n">
-        <v>231.8830517671884</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="X38" t="n">
-        <v>231.8830517671884</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.8830517671884</v>
+        <v>268.1467311904249</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>485.4562706347935</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C39" t="n">
-        <v>311.0032413536665</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D39" t="n">
-        <v>311.0032413536665</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E39" t="n">
-        <v>311.0032413536665</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F39" t="n">
-        <v>164.4686833805514</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G39" t="n">
-        <v>25.73785796316693</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H39" t="n">
-        <v>25.73785796316693</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>611.0983395749985</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>847.7524488388525</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>619.8565815690379</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>378.3974352943169</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>170.5459350887841</v>
       </c>
       <c r="Y39" t="n">
-        <v>485.4562706347935</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>120.8151985263673</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>300.8910501110258</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>445.3001031303068</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>651.1546253375461</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>800.3495754801942</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="S41" t="n">
-        <v>731.528039392485</v>
+        <v>692.0499128974488</v>
       </c>
       <c r="T41" t="n">
-        <v>506.1786963984129</v>
+        <v>467.3000061367809</v>
       </c>
       <c r="U41" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>158.0119685275972</v>
+        <v>687.8230361310111</v>
       </c>
       <c r="C42" t="n">
-        <v>158.0119685275972</v>
+        <v>611.2374406726512</v>
       </c>
       <c r="D42" t="n">
-        <v>158.0119685275972</v>
+        <v>462.3030310113999</v>
       </c>
       <c r="E42" t="n">
-        <v>158.0119685275972</v>
+        <v>303.0655760059444</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>156.5310180328294</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>143.1577526732823</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>363.435136289413</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>583.7125199055437</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>803.9899035216744</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>687.8230361310111</v>
       </c>
       <c r="U42" t="n">
-        <v>401.4607451716973</v>
+        <v>687.8230361310111</v>
       </c>
       <c r="V42" t="n">
-        <v>401.4607451716973</v>
+        <v>687.8230361310111</v>
       </c>
       <c r="W42" t="n">
-        <v>158.0119685275972</v>
+        <v>687.8230361310111</v>
       </c>
       <c r="X42" t="n">
-        <v>158.0119685275972</v>
+        <v>687.8230361310111</v>
       </c>
       <c r="Y42" t="n">
-        <v>158.0119685275972</v>
+        <v>687.8230361310111</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.1276524520142</v>
+        <v>289.1268698356065</v>
       </c>
       <c r="C44" t="n">
-        <v>284.1276524520142</v>
+        <v>289.1268698356065</v>
       </c>
       <c r="D44" t="n">
-        <v>284.1276524520142</v>
+        <v>289.1268698356065</v>
       </c>
       <c r="E44" t="n">
-        <v>284.1276524520142</v>
+        <v>289.1268698356065</v>
       </c>
       <c r="F44" t="n">
-        <v>284.1276524520142</v>
+        <v>289.1268698356065</v>
       </c>
       <c r="G44" t="n">
-        <v>40.6788758079141</v>
+        <v>64.37696307493852</v>
       </c>
       <c r="H44" t="n">
-        <v>40.6788758079141</v>
+        <v>64.37696307493852</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>120.8151985263673</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>300.8910501110258</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>517.86667737393</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>723.7211995811692</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>800.3495754801942</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="T44" t="n">
-        <v>527.5764290961142</v>
+        <v>513.8767765962745</v>
       </c>
       <c r="U44" t="n">
-        <v>527.5764290961142</v>
+        <v>513.8767765962745</v>
       </c>
       <c r="V44" t="n">
-        <v>527.5764290961142</v>
+        <v>289.1268698356065</v>
       </c>
       <c r="W44" t="n">
-        <v>527.5764290961142</v>
+        <v>289.1268698356065</v>
       </c>
       <c r="X44" t="n">
-        <v>527.5764290961142</v>
+        <v>289.1268698356065</v>
       </c>
       <c r="Y44" t="n">
-        <v>527.5764290961142</v>
+        <v>289.1268698356065</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>477.5186052870714</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>303.0655760059444</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>303.0655760059444</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>303.0655760059444</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>156.5310180328294</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>197.4168274133035</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>417.6942110294342</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>637.9715946455649</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>820.6150722589158</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R45" t="n">
-        <v>913.4938269565423</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="S45" t="n">
-        <v>913.4938269565423</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="T45" t="n">
-        <v>913.4938269565423</v>
+        <v>586.6535066838969</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>586.6535066838969</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>586.6535066838969</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>586.6535066838969</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>586.6535066838969</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>586.6535066838969</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5820500585697</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8221,19 +8221,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,10 +8619,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8856,10 +8856,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1154692732874</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>180.1904932776592</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9093,10 +9093,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>255.5148970497678</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9965,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10193,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>316.3460615231987</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>255.5148970497678</v>
+        <v>381.1785887339921</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>240.8626922944873</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>381.6407992564182</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>316.3460615231987</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>251.6550141331723</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>370.386266895307</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>381.6407992564182</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>313.9993571235165</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>381.1785887339921</v>
       </c>
       <c r="N39" t="n">
-        <v>244.7225752110828</v>
+        <v>370.386266895307</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>252.1172246555984</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>376.2139635497788</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>361.0567874729355</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>364.6364416150796</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>353.8441197763946</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>229.4848578288594</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>307.5006113196918</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5148970497678</v>
+        <v>323.5649781622795</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>353.8441197763946</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>365.0986521375057</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,13 +22555,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>337.7981976930332</v>
+        <v>359.3640175880309</v>
       </c>
       <c r="F2" t="n">
-        <v>368.0044283100869</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22594,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22643,7 +22643,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X3" t="n">
-        <v>166.9013677718529</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22713,10 +22713,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>144.630597575249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -22758,16 +22758,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>263.7526768722601</v>
       </c>
       <c r="V4" t="n">
-        <v>208.0054709445994</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W4" t="n">
-        <v>242.3908259573624</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>352.6972385013215</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>194.2149313470516</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V5" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,10 +22874,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>98.47189973158609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22919,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W6" t="n">
-        <v>207.562810781691</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>183.2066327192466</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22950,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>145.6435121988869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22983,31 +22983,31 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>157.4484796280452</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U7" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W7" t="n">
-        <v>242.3908259573624</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X7" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>194.2149313470516</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V8" t="n">
-        <v>283.6200860909063</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>371.9273436213119</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>148.4072047390293</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23162,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23181,22 +23181,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.4367220597573</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23226,10 +23226,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>264.0742389760816</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>194.7094745515037</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.3570204389738</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="12">
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F12" t="n">
-        <v>106.1975949617593</v>
+        <v>120.7679181440974</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,7 +23396,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>154.660024479576</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23463,16 +23463,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S13" t="n">
-        <v>179.8844256577437</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>376.4311200835105</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23545,13 +23545,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>345.4298064291826</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23585,10 +23585,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>106.1975949617593</v>
+        <v>120.7679181440974</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,7 +23636,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23700,25 +23700,25 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>285.5285789088086</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>304.5378186490225</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>310.5938838986874</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.26033333140017</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,13 +23873,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,19 +23946,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>354.079835614828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>325.8021234036032</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24019,16 +24019,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.7341746849847</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,16 +24104,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24186,13 +24186,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,22 +24253,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24335,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>121.6254758352847</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280.3956145707916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24572,22 +24572,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>75.61675863939726</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>219.4398808579086</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U29" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24767,16 +24767,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>115.4939806357864</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>50.84673021034803</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>269.6014437650281</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>100.4302473037934</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>144.691136497029</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>147.1116769010911</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25058,7 +25058,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>98.73090164669938</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>144.691136497029</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>88.70770365816117</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25244,13 +25244,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>11.84915022070467</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>12.65042834894587</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>399.3876654162729</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>176.2581827031613</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>118.4690265078945</v>
+        <v>12.30109809586276</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>83.00448514699042</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>12.65042834894587</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>55.77454878051645</v>
       </c>
     </row>
     <row r="40">
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>184.3736380486502</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,16 +25675,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>128.6853625704253</v>
+        <v>13.03994889019702</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.5934418710700697</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>28.84324521477521</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25709,16 +25709,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>96.88875948453946</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>40.81883564408477</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>192.8003298220738</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>189.2921341996816</v>
+        <v>164.3648868155072</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25912,19 +25912,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.5934418710700697</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>105.2498507770736</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>58.48963126701008</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25955,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.10013888409016</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>364636.6663211565</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>364636.6663211565</v>
+        <v>350035.0587549794</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>364636.6663211566</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364636.6663211566</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364636.6663211566</v>
+        <v>351669.2246312142</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506790.0512205642</v>
+        <v>364636.6663211565</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205641</v>
+        <v>364636.6663211565</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364133</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506790.0512205641</v>
+        <v>493424.0501939183</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506790.0512205641</v>
+        <v>493424.0501939183</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53798.85240803944</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="C2" t="n">
+        <v>51644.51686548873</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51885.6233062447</v>
+      </c>
+      <c r="E2" t="n">
+        <v>51885.62330624471</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51885.62330624471</v>
+      </c>
+      <c r="G2" t="n">
         <v>53798.85240803943</v>
       </c>
-      <c r="D2" t="n">
-        <v>53798.85240803946</v>
-      </c>
-      <c r="E2" t="n">
-        <v>53798.85240803942</v>
-      </c>
-      <c r="F2" t="n">
-        <v>53798.85240803944</v>
-      </c>
-      <c r="G2" t="n">
-        <v>74772.30263909959</v>
-      </c>
       <c r="H2" t="n">
-        <v>74772.30263909959</v>
+        <v>53798.85240803943</v>
       </c>
       <c r="I2" t="n">
         <v>74772.30263909961</v>
       </c>
       <c r="J2" t="n">
-        <v>74772.30263909959</v>
+        <v>74772.30263909958</v>
       </c>
       <c r="K2" t="n">
         <v>74772.30263909959</v>
       </c>
       <c r="L2" t="n">
-        <v>74772.30263909958</v>
+        <v>74562.4708873396</v>
       </c>
       <c r="M2" t="n">
-        <v>74772.30263909961</v>
+        <v>74562.47088733959</v>
       </c>
       <c r="N2" t="n">
-        <v>74772.30263909961</v>
+        <v>74562.47088733962</v>
       </c>
       <c r="O2" t="n">
-        <v>74772.30263909959</v>
+        <v>72800.26970074199</v>
       </c>
       <c r="P2" t="n">
-        <v>74772.30263909959</v>
+        <v>72800.26970074201</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>8585.948846018267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>611.8584928238274</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>4533.95439308712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52355.08930137913</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>6703.395469327987</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>22.21667432804714</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.21667432804714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="G4" t="n">
         <v>36.87052286425572</v>
       </c>
-      <c r="C4" t="n">
-        <v>36.87052286425573</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="H4" t="n">
         <v>36.87052286425572</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36.87052286425572</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36.87052286425573</v>
-      </c>
-      <c r="G4" t="n">
-        <v>179.5324977039669</v>
-      </c>
-      <c r="H4" t="n">
-        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
         <v>179.5324977039669</v>
@@ -26447,19 +26447,19 @@
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="G5" t="n">
         <v>2683.236080657098</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2683.236080657098</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14653.66876376167</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14653.66876376167</v>
       </c>
       <c r="I5" t="n">
         <v>14653.66876376167</v>
@@ -26499,19 +26499,19 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11886.95417877329</v>
+        <v>6372.261181020242</v>
       </c>
       <c r="C6" t="n">
-        <v>2902.75182547093</v>
+        <v>14958.21002703852</v>
       </c>
       <c r="D6" t="n">
-        <v>2902.751825470952</v>
+        <v>14468.73709170896</v>
       </c>
       <c r="E6" t="n">
-        <v>36530.35182547091</v>
+        <v>48708.1955845328</v>
       </c>
       <c r="F6" t="n">
-        <v>36530.35182547093</v>
+        <v>48708.1955845328</v>
       </c>
       <c r="G6" t="n">
-        <v>-6241.344142878826</v>
+        <v>45089.95201352624</v>
       </c>
       <c r="H6" t="n">
-        <v>47721.09075759349</v>
+        <v>49623.90640661336</v>
       </c>
       <c r="I6" t="n">
-        <v>47721.09075759351</v>
+        <v>6362.211014250797</v>
       </c>
       <c r="J6" t="n">
-        <v>36174.17264760261</v>
+        <v>52013.90484630191</v>
       </c>
       <c r="K6" t="n">
-        <v>47721.09075759349</v>
+        <v>58717.30031562991</v>
       </c>
       <c r="L6" t="n">
-        <v>47721.09075759347</v>
+        <v>58626.32421239691</v>
       </c>
       <c r="M6" t="n">
-        <v>47721.09075759351</v>
+        <v>58626.3242123969</v>
       </c>
       <c r="N6" t="n">
-        <v>47721.0907575935</v>
+        <v>58626.32421239692</v>
       </c>
       <c r="O6" t="n">
-        <v>341.2125401297053</v>
+        <v>57862.29209750258</v>
       </c>
       <c r="P6" t="n">
-        <v>47721.09075759349</v>
+        <v>57862.29209750259</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="G4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26819,19 +26819,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>16.54214711891245</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>196.8821164984305</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>16.54214711891245</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P2" t="n">
-        <v>42.34905430330016</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330018</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35339,10 +35339,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330016</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35576,10 +35576,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L14" t="n">
-        <v>42.34905430330018</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>42.34905430330018</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35813,10 +35813,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>113.3808631277495</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L20" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O27" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O27" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>96.25621047821812</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
@@ -37156,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>113.3808631277495</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>109.520980211154</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>96.25621047821812</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>109.520980211154</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>82.76636136824696</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N39" t="n">
-        <v>113.3808631277494</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>109.520980211154</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>145.867730322506</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37864,16 +37864,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="N42" t="n">
-        <v>113.3808631277494</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>86.88861338441494</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>77.402399898005</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>113.3808631277495</v>
+        <v>181.4309442402613</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
